--- a/data-raw/qry_Knights_ReleaseFish_EDI.xlsx
+++ b/data-raw/qry_Knights_ReleaseFish_EDI.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="qry_Knights_ReleaseFish_EDI"/>
+    <sheet sheetId="1" r:id="rId1" name="ReleaseFish___EDI_query"/>
   </sheets>
   <definedNames>
-    <definedName name="qry_Knights_ReleaseFish_EDI">'qry_Knights_ReleaseFish_EDI'!$A$1:$D$2561</definedName>
+    <definedName name="ReleaseFish___EDI_query">'ReleaseFish___EDI_query'!$A$1:$D$2565</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2561"/>
+  <dimension ref="A1:D2565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -35868,6 +35868,50 @@
         <v>68</v>
       </c>
     </row>
+    <row outlineLevel="0" r="2562">
+      <c r="A2562" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2562" s="0">
+        <v>2561</v>
+      </c>
+      <c r="C2562" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2563">
+      <c r="A2563" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2563" s="0">
+        <v>2562</v>
+      </c>
+      <c r="C2563" s="0">
+        <v>614</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2564">
+      <c r="A2564" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2564" s="0">
+        <v>2563</v>
+      </c>
+      <c r="C2564" s="0">
+        <v>611</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2565">
+      <c r="A2565" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2565" s="0">
+        <v>2564</v>
+      </c>
+      <c r="C2565" s="0">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/qry_Knights_ReleaseFish_EDI.xlsx
+++ b/data-raw/qry_Knights_ReleaseFish_EDI.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB98EFDF0CA97A9249FE63585B670DE4952" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552B95B9-7577-470A-AE7E-26CBD3CF39C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_BEA61AB9848DB4AD25693803FE36A78E70DE4AC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReleaseFish___EDI_query" sheetId="1" r:id="rId1"/>
+    <sheet name="qry_Knights_ReleaseFish_EDI" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ReleaseFish___EDI_query">ReleaseFish___EDI_query!$A$1:$D$2565</definedName>
+    <definedName name="qry_Knights_ReleaseFish_EDI">qry_Knights_ReleaseFish_EDI!$A$1:$D$2566</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -387,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2565"/>
+  <dimension ref="A1:D2566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35948,6 +35937,17 @@
         <v>616</v>
       </c>
     </row>
+    <row r="2566" spans="1:4">
+      <c r="A2566">
+        <v>9</v>
+      </c>
+      <c r="B2566">
+        <v>2565</v>
+      </c>
+      <c r="C2566">
+        <v>619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/qry_Knights_ReleaseFish_EDI.xlsx
+++ b/data-raw/qry_Knights_ReleaseFish_EDI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_BEA61AB9848DB4AD25693803FE36A78E70DE4AC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_BEA61AB9848DBAC0A1CB3103FE36A78E70DE4AC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
